--- a/vpcdata.xlsx
+++ b/vpcdata.xlsx
@@ -4,24 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="vpcdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>NickName</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
     <t>Alex(Imedx)</t>
   </si>
   <si>
+    <t>AshokShuban</t>
+  </si>
+  <si>
     <t>Srikumar(Deci)30k</t>
   </si>
   <si>
@@ -136,16 +136,13 @@
     <t>Muneswaran(SrinivasanKH)</t>
   </si>
   <si>
-    <t>Manikandan(Ganeshvimal)1,20l</t>
+    <t>Manikandan(Ganeshvimal)1.2L</t>
   </si>
   <si>
     <t>AntonyChamp 60k</t>
   </si>
   <si>
-    <t>Diwakar (Trichy)</t>
-  </si>
-  <si>
-    <t>Trichy)50k</t>
+    <t>Diwakar (Trichy) 50k</t>
   </si>
   <si>
     <t>Alex(Imedx)50k</t>
@@ -160,31 +157,58 @@
     <t>Parthiban</t>
   </si>
   <si>
-    <t>(pradeepan)40k</t>
-  </si>
-  <si>
     <t>Sujith(SrinivasanKH)</t>
   </si>
   <si>
     <t>Prince</t>
   </si>
   <si>
-    <t>7.5k</t>
-  </si>
-  <si>
     <t>Kavitha(HariNexa)7.5k</t>
   </si>
   <si>
     <t>Devarajvinesh(HariNexa)70k</t>
   </si>
   <si>
-    <t>AshokShuban</t>
-  </si>
-  <si>
-    <t>mar (johnjerald</t>
-  </si>
-  <si>
     <t>Shaji scribe</t>
+  </si>
+  <si>
+    <t>Mani Decipher 10k</t>
+  </si>
+  <si>
+    <t>Santhosh(Kumar Franklin )10k</t>
+  </si>
+  <si>
+    <t>Arunkumar(Airtel)60k</t>
+  </si>
+  <si>
+    <t>John Prince 1.3L</t>
+  </si>
+  <si>
+    <t>Mickey(kumarFranklin)2.5k</t>
+  </si>
+  <si>
+    <t>Ravindran(Kirithika SPI)50k</t>
+  </si>
+  <si>
+    <t>Pitchaipandi(SathyaVpC)2.5</t>
+  </si>
+  <si>
+    <t>Vishnu(Sasi Jewellary)60k</t>
+  </si>
+  <si>
+    <t>Sasi ABT(Kirithika SPI) 60k</t>
+  </si>
+  <si>
+    <t>Dhinesh(Devika Nithya)30k</t>
+  </si>
+  <si>
+    <t>Prabhakaran(Rathinam collage)10k</t>
+  </si>
+  <si>
+    <t>Mary(Latha Cook) 20k</t>
+  </si>
+  <si>
+    <t>Manoj(Vani) 40k</t>
   </si>
 </sst>
 </file>
@@ -669,11 +693,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,30 +1038,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,1450 +1146,2463 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
+      <c r="C2">
+        <v>50000</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <v>44550</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1">
+        <v>44566</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44601</v>
+      </c>
+      <c r="M2" s="1">
+        <v>44630</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44661</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>44691</v>
+      </c>
+      <c r="S2" s="1">
+        <v>44722</v>
+      </c>
+      <c r="U2" s="1">
+        <v>44752</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44783</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>44814</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1">
-        <v>44566</v>
-      </c>
-      <c r="L2" s="1">
-        <v>44601</v>
-      </c>
-      <c r="N2" s="1">
-        <v>44630</v>
-      </c>
-      <c r="P2" s="1">
-        <v>44661</v>
-      </c>
-      <c r="R2" s="1">
-        <v>44691</v>
-      </c>
-      <c r="T2" s="1">
-        <v>44722</v>
-      </c>
-      <c r="V2" s="1">
-        <v>44752</v>
-      </c>
-      <c r="X2" s="1">
-        <v>44783</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>44814</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>44844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
+      <c r="C3">
+        <v>80000</v>
       </c>
       <c r="D3">
-        <v>80000</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <v>44551</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1">
+        <v>44567</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44814</v>
+      </c>
+      <c r="M3" s="1">
+        <v>44843</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44875</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>44905</v>
+      </c>
+      <c r="S3" s="1">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1">
-        <v>44567</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="C4">
+        <v>200000</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44552</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44568</v>
+      </c>
+      <c r="K4" s="1">
+        <v>44690</v>
+      </c>
+      <c r="M4" s="1">
+        <v>44721</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44751</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>44782</v>
+      </c>
+      <c r="S4" s="1">
+        <v>44813</v>
+      </c>
+      <c r="U4" s="1">
+        <v>44843</v>
+      </c>
+      <c r="W4" s="1">
+        <v>44874</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>44904</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>70000</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44553</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44569</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44691</v>
+      </c>
+      <c r="M5" s="1">
+        <v>44721</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44754</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>44783</v>
+      </c>
+      <c r="S5" s="1">
         <v>44814</v>
       </c>
-      <c r="N3" s="1">
-        <v>44843</v>
-      </c>
-      <c r="P3" s="1">
-        <v>44875</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="U5" s="1">
+        <v>44845</v>
+      </c>
+      <c r="W5" s="1">
+        <v>44876</v>
+      </c>
+      <c r="Y5" s="1">
         <v>44905</v>
       </c>
-      <c r="T3" s="1">
-        <v>44937</v>
+      <c r="AA5" s="1">
+        <v>44946</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4">
-        <v>200000</v>
-      </c>
-      <c r="E4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>250000</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <v>44552</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1">
-        <v>44568</v>
-      </c>
-      <c r="L4" s="1">
-        <v>44690</v>
-      </c>
-      <c r="N4" s="1">
-        <v>44721</v>
-      </c>
-      <c r="P4" s="1">
-        <v>44751</v>
-      </c>
-      <c r="R4" s="1">
-        <v>44782</v>
-      </c>
-      <c r="T4" s="1">
-        <v>44813</v>
-      </c>
-      <c r="V4" s="1">
-        <v>44843</v>
-      </c>
-      <c r="X4" s="1">
-        <v>44874</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>44904</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>44938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>70000</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>44553</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1">
-        <v>44569</v>
-      </c>
-      <c r="L5" s="1">
-        <v>44691</v>
-      </c>
-      <c r="N5" s="1">
-        <v>44721</v>
-      </c>
-      <c r="P5" s="1">
-        <v>44754</v>
-      </c>
-      <c r="R5" s="1">
-        <v>44783</v>
-      </c>
-      <c r="T5" s="1">
-        <v>44814</v>
-      </c>
-      <c r="V5" s="1">
-        <v>44845</v>
-      </c>
-      <c r="X5" s="1">
-        <v>44876</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>44905</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>44946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6">
-        <v>250000</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>44554</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1">
         <v>44570</v>
       </c>
-      <c r="L6" s="1">
+      <c r="K6" s="1">
         <v>44703</v>
       </c>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <v>44733</v>
       </c>
-      <c r="P6" s="1">
+      <c r="O6" s="1">
         <v>44764</v>
       </c>
-      <c r="R6" s="1">
+      <c r="Q6" s="1">
         <v>44800</v>
       </c>
-      <c r="T6" s="1">
+      <c r="S6" s="1">
         <v>44832</v>
       </c>
-      <c r="V6" s="1">
+      <c r="U6" s="1">
         <v>44861</v>
       </c>
-      <c r="X6" s="1">
+      <c r="W6" s="1">
         <v>44892</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Y6" s="1">
         <v>44922</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
+      <c r="B7">
+        <v>9400220021</v>
+      </c>
       <c r="C7">
-        <v>9400220021</v>
+        <v>30000</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>44652</v>
       </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <v>44684</v>
       </c>
-      <c r="K7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
         <v>44715</v>
       </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1">
         <v>44743</v>
       </c>
-      <c r="O7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="1">
         <v>44776</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="P7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="1">
         <v>44807</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" s="1">
         <v>44837</v>
       </c>
-      <c r="U7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1">
         <v>44868</v>
       </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="V7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1">
         <v>44897</v>
       </c>
-      <c r="Y7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="1">
+      <c r="X7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="1">
         <v>44932</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB7" s="1">
+      <c r="Z7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="1">
         <v>44960</v>
       </c>
-      <c r="AC7" t="s">
-        <v>33</v>
+      <c r="AB7" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
+      <c r="B8">
+        <v>8675350151</v>
+      </c>
       <c r="C8">
-        <v>8675350151</v>
+        <v>100000</v>
       </c>
       <c r="D8">
-        <v>100000</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>44657</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1">
         <v>44688</v>
       </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
         <v>44718</v>
       </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1">
         <v>44747</v>
       </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="1">
         <v>44780</v>
       </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="1">
         <v>44842</v>
       </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" s="1">
         <v>44871</v>
       </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" s="1">
         <v>44903</v>
       </c>
-      <c r="W8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="V8" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="1">
         <v>44933</v>
       </c>
-      <c r="Y8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z8" s="1">
+      <c r="X8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="1">
         <v>44964</v>
       </c>
-      <c r="AA8" t="s">
-        <v>33</v>
+      <c r="Z8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
+      <c r="B9">
+        <v>9087033606</v>
+      </c>
       <c r="C9">
-        <v>9087033606</v>
+        <v>120000</v>
       </c>
       <c r="D9">
-        <v>120000</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9">
         <v>10</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
         <v>44657</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="1">
         <v>44683</v>
       </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
         <v>44732</v>
       </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="1">
         <v>44756</v>
       </c>
-      <c r="O9" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="1">
         <v>44786</v>
       </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="1">
         <v>44823</v>
       </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="1">
         <v>44848</v>
       </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="1">
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" s="1">
         <v>44882</v>
       </c>
-      <c r="W9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="V9" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="1">
         <v>44911</v>
       </c>
-      <c r="Y9" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="X9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="1">
         <v>44922</v>
       </c>
-      <c r="AA9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="1">
+      <c r="Z9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA9" s="1">
         <v>44922</v>
       </c>
-      <c r="AC9" t="s">
-        <v>30</v>
+      <c r="AB9" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="B10">
+        <v>9894226740</v>
+      </c>
       <c r="C10">
-        <v>9894226740</v>
+        <v>60000</v>
       </c>
       <c r="D10">
-        <v>60000</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="1">
+      <c r="F10" s="1">
         <v>44658</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="1">
         <v>44708</v>
       </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1">
         <v>44739</v>
       </c>
-      <c r="M10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1">
         <v>44769</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="1">
         <v>44800</v>
       </c>
-      <c r="Q10" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="1">
         <v>44831</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="1">
         <v>44861</v>
       </c>
-      <c r="U10" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="1">
+      <c r="T10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="1">
         <v>44893</v>
       </c>
-      <c r="W10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="V10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1">
         <v>44922</v>
       </c>
-      <c r="Y10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z10" s="1">
+      <c r="X10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="1">
         <v>44953</v>
       </c>
-      <c r="AA10" t="s">
-        <v>33</v>
+      <c r="Z10" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>50000</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44658</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44680</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44748</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44746</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44779</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>44813</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="1">
+        <v>44841</v>
+      </c>
+      <c r="T11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="1">
+        <v>44872</v>
+      </c>
+      <c r="V11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W11" s="1">
+        <v>44898</v>
+      </c>
+      <c r="X11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>44928</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>44928</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="B12">
+        <v>8778258118</v>
+      </c>
+      <c r="C12">
         <v>50000</v>
       </c>
-      <c r="E11">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="F11">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="F12" s="1">
         <v>44658</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="1">
-        <v>44680</v>
-      </c>
-      <c r="K11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="1">
-        <v>44748</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="1">
-        <v>44746</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="1">
-        <v>44779</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="1">
-        <v>44813</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="1">
-        <v>44841</v>
-      </c>
-      <c r="U11" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="1">
-        <v>44872</v>
-      </c>
-      <c r="W11" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="1">
-        <v>44898</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>44928</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>44928</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>33</v>
+      <c r="I12" s="1">
+        <v>44597</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44720</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44741</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44777</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>44802</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="1">
+        <v>44840</v>
+      </c>
+      <c r="T12" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1">
+        <v>44881</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="1">
+        <v>44908</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>44912</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="C12">
-        <v>8778258118</v>
-      </c>
-      <c r="D12">
-        <v>50000</v>
-      </c>
-      <c r="E12">
+      <c r="B13">
+        <v>6369953277</v>
+      </c>
+      <c r="C13">
+        <v>200000</v>
+      </c>
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="F12">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
+      <c r="F13" s="1">
         <v>44658</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="1">
-        <v>44597</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="1">
-        <v>44720</v>
-      </c>
-      <c r="M12" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="1">
-        <v>44741</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="1">
-        <v>44777</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R12" s="1">
-        <v>44802</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="1">
-        <v>44840</v>
-      </c>
-      <c r="U12" t="s">
-        <v>30</v>
-      </c>
-      <c r="V12" s="1">
-        <v>44881</v>
-      </c>
-      <c r="W12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X12" s="1">
-        <v>44908</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>44912</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13">
-        <v>6369953277</v>
-      </c>
-      <c r="D13">
-        <v>200000</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <v>44658</v>
+      <c r="G13" t="s">
+        <v>29</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="1">
         <v>44688</v>
       </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="1">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1">
         <v>44719</v>
       </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="1">
         <v>44749</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="1">
         <v>44781</v>
       </c>
-      <c r="Q13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1">
         <v>44811</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" s="1">
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="1">
         <v>44841</v>
       </c>
-      <c r="U13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V13" s="1">
+      <c r="T13" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="1">
         <v>44872</v>
       </c>
-      <c r="W13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="1">
+      <c r="V13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="1">
         <v>44902</v>
       </c>
-      <c r="Y13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="1">
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y13" s="1">
         <v>44935</v>
       </c>
-      <c r="AA13" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="1">
+      <c r="Z13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA13" s="1">
         <v>44964</v>
       </c>
-      <c r="AC13" t="s">
-        <v>30</v>
+      <c r="AB13" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>9629604119</v>
       </c>
       <c r="C14">
-        <v>9629604119</v>
+        <v>10000</v>
       </c>
       <c r="D14">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
         <v>10</v>
       </c>
-      <c r="G14" s="1">
+      <c r="F14" s="1">
         <v>44658</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="1">
         <v>44688</v>
       </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1">
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1">
         <v>44719</v>
       </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="1">
         <v>44750</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="1">
         <v>44783</v>
       </c>
-      <c r="Q14" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1">
         <v>44813</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="1">
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="1">
         <v>44844</v>
       </c>
-      <c r="U14" t="s">
-        <v>30</v>
-      </c>
-      <c r="V14" s="1">
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="1">
         <v>44872</v>
       </c>
-      <c r="W14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" s="1">
+      <c r="V14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="1">
         <v>44904</v>
       </c>
-      <c r="Y14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z14" s="1">
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="1">
         <v>44933</v>
       </c>
-      <c r="AA14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB14" s="1">
+      <c r="Z14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA14" s="1">
         <v>44964</v>
       </c>
-      <c r="AC14" t="s">
-        <v>30</v>
+      <c r="AB14" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>9843738847</v>
       </c>
       <c r="C15">
-        <v>9843738847</v>
+        <v>40000</v>
       </c>
       <c r="D15">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="F15">
         <v>10</v>
       </c>
-      <c r="G15" s="1">
+      <c r="F15" s="1">
         <v>44658</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="1">
         <v>44695</v>
       </c>
-      <c r="K15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1">
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1">
         <v>44725</v>
       </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="1">
         <v>44755</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="1">
         <v>44786</v>
       </c>
-      <c r="Q15" t="s">
-        <v>30</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="1">
         <v>44817</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="1">
         <v>44851</v>
       </c>
-      <c r="U15" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="1">
+      <c r="T15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="1">
         <v>44879</v>
       </c>
-      <c r="W15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="1">
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" s="1">
         <v>44910</v>
       </c>
-      <c r="Y15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z15" s="1">
+      <c r="X15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="1">
         <v>44940</v>
       </c>
-      <c r="AA15" t="s">
-        <v>30</v>
+      <c r="Z15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>44968</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>8508655526</v>
       </c>
       <c r="C16">
-        <v>8508655526</v>
+        <v>50000</v>
       </c>
       <c r="D16">
-        <v>50000</v>
+        <v>20</v>
       </c>
       <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44660</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44692</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44730</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="1">
+        <v>44755</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44783</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>44837</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="1">
+        <v>44852</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="1">
+        <v>44882</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="1">
+        <v>44911</v>
+      </c>
+      <c r="X16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>44936</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>9842833324</v>
+      </c>
+      <c r="C17">
+        <v>75000</v>
+      </c>
+      <c r="D17">
         <v>20</v>
       </c>
-      <c r="F16">
+      <c r="E17">
         <v>10</v>
       </c>
-      <c r="G16" s="1">
-        <v>44660</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="1">
-        <v>44692</v>
-      </c>
-      <c r="K16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="1">
-        <v>44730</v>
-      </c>
-      <c r="M16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="1">
-        <v>44755</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="1">
-        <v>44783</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>30</v>
-      </c>
-      <c r="R16" s="1">
-        <v>44837</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="1">
-        <v>44852</v>
-      </c>
-      <c r="U16" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="1">
-        <v>44882</v>
-      </c>
-      <c r="W16" t="s">
-        <v>30</v>
-      </c>
-      <c r="X16" s="1">
-        <v>44911</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>44936</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17">
-        <v>9842833324</v>
-      </c>
-      <c r="D17">
-        <v>75000</v>
-      </c>
-      <c r="E17">
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="1">
         <v>44661</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="1">
         <v>44708</v>
       </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1">
         <v>44739</v>
       </c>
-      <c r="M17" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="1">
         <v>44771</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="1">
         <v>44803</v>
       </c>
-      <c r="Q17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="1">
         <v>44832</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="1">
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="1">
         <v>44862</v>
       </c>
-      <c r="U17" t="s">
-        <v>30</v>
-      </c>
-      <c r="V17" s="1">
+      <c r="T17" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="1">
         <v>44894</v>
       </c>
-      <c r="W17" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="1">
+      <c r="V17" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="1">
         <v>44929</v>
       </c>
-      <c r="Y17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="1">
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" s="1">
         <v>44954</v>
       </c>
-      <c r="AA17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB17" s="1">
+      <c r="Z17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA17" s="1">
         <v>44956</v>
       </c>
-      <c r="AC17" t="s">
-        <v>30</v>
+      <c r="AB17" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>8438132375</v>
       </c>
       <c r="C18">
-        <v>8438132375</v>
+        <v>75000</v>
       </c>
       <c r="D18">
-        <v>75000</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
+      <c r="F18" s="1">
         <v>44662</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="1">
         <v>44692</v>
       </c>
-      <c r="K18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" s="1">
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1">
         <v>44723</v>
       </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="L18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="1">
         <v>44753</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1">
         <v>44785</v>
       </c>
-      <c r="Q18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1">
         <v>44816</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="1">
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="1">
         <v>44849</v>
       </c>
-      <c r="U18" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="1">
+      <c r="T18" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="1">
         <v>44879</v>
       </c>
-      <c r="W18" t="s">
-        <v>30</v>
-      </c>
-      <c r="X18" s="1">
+      <c r="V18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="1">
         <v>44905</v>
       </c>
-      <c r="Y18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="1">
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" s="1">
         <v>44911</v>
       </c>
-      <c r="AA18" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB18" s="1">
+      <c r="Z18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA18" s="1">
         <v>44911</v>
       </c>
-      <c r="AC18" t="s">
-        <v>30</v>
+      <c r="AB18" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>9600236958</v>
       </c>
       <c r="C19">
-        <v>9600236958</v>
+        <v>70000</v>
       </c>
       <c r="D19">
-        <v>70000</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19">
         <v>10</v>
       </c>
-      <c r="G19" s="1">
+      <c r="F19" s="1">
         <v>44662</v>
+      </c>
+      <c r="G19" t="s">
+        <v>29</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
       </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="I19" s="1">
         <v>44692</v>
       </c>
-      <c r="K19" t="s">
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44723</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="1">
+        <v>44754</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44785</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>44817</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="1">
+        <v>44848</v>
+      </c>
+      <c r="T19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="1">
+        <v>44879</v>
+      </c>
+      <c r="V19" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="1">
+        <v>44908</v>
+      </c>
+      <c r="X19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>44933</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>44933</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>8754756652</v>
+      </c>
+      <c r="C20">
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="1">
-        <v>44723</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="I20" s="1">
+        <v>44688</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44713</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="1">
+        <v>44740</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44769</v>
+      </c>
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>44800</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="1">
+        <v>44809</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="1">
+        <v>44809</v>
+      </c>
+      <c r="V20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" s="1">
+        <v>44809</v>
+      </c>
+      <c r="X20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>44809</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>44809</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>9787885138</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44696</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44716</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="1">
+        <v>44754</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44784</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>44814</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="1">
+        <v>44841</v>
+      </c>
+      <c r="T21" t="s">
+        <v>29</v>
+      </c>
+      <c r="U21" s="1">
+        <v>44876</v>
+      </c>
+      <c r="V21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="1">
+        <v>44903</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>44938</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>44963</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>9629934395</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="1">
+      <c r="I22" s="1">
+        <v>44688</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44718</v>
+      </c>
+      <c r="L22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="1">
+        <v>44750</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44781</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>44831</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44841</v>
+      </c>
+      <c r="T22" t="s">
+        <v>29</v>
+      </c>
+      <c r="U22" s="1">
+        <v>44876</v>
+      </c>
+      <c r="V22" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="1">
+        <v>44902</v>
+      </c>
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>44936</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>9566666031</v>
+      </c>
+      <c r="C23">
+        <v>60000</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44691</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44721</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="1">
+        <v>44751</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44781</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>44811</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" s="1">
+        <v>44844</v>
+      </c>
+      <c r="T23" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="1">
+        <v>44867</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="1">
+        <v>44900</v>
+      </c>
+      <c r="X23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>44931</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>44933</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>9994681017</v>
+      </c>
+      <c r="C24">
+        <v>130000</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44693</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44725</v>
+      </c>
+      <c r="L24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="1">
         <v>44754</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="1">
+        <v>44784</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>44819</v>
+      </c>
+      <c r="R24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="1">
+        <v>44846</v>
+      </c>
+      <c r="T24" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="1">
+        <v>44877</v>
+      </c>
+      <c r="V24" t="s">
+        <v>29</v>
+      </c>
+      <c r="W24" s="1">
+        <v>44908</v>
+      </c>
+      <c r="X24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>44939</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <v>8825564318</v>
+      </c>
+      <c r="C25">
+        <v>25000</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44662</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44692</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="1">
+        <v>44726</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="1">
+        <v>44757</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" s="1">
+        <v>44785</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>44817</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="1">
+        <v>44848</v>
+      </c>
+      <c r="T25" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="1">
+        <v>44880</v>
+      </c>
+      <c r="V25" t="s">
+        <v>29</v>
+      </c>
+      <c r="W25" s="1">
+        <v>44909</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>44938</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26">
+        <v>9944062143</v>
+      </c>
+      <c r="C26">
+        <v>50000</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44664</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44694</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44725</v>
+      </c>
+      <c r="L26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="1">
+        <v>44756</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="1">
+        <v>44790</v>
+      </c>
+      <c r="P26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>44829</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="1">
+        <v>44874</v>
+      </c>
+      <c r="T26" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="1">
+        <v>44895</v>
+      </c>
+      <c r="V26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27">
+        <v>9994663797</v>
+      </c>
+      <c r="C27">
+        <v>25000</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44693</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44725</v>
+      </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1">
+        <v>44757</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="1">
+        <v>44785</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>44818</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" s="1">
+        <v>44848</v>
+      </c>
+      <c r="T27" t="s">
+        <v>29</v>
+      </c>
+      <c r="U27" s="1">
+        <v>44879</v>
+      </c>
+      <c r="V27" t="s">
+        <v>29</v>
+      </c>
+      <c r="W27" s="1">
+        <v>44910</v>
+      </c>
+      <c r="X27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>44943</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>7010646143</v>
+      </c>
+      <c r="C28">
+        <v>60000</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44699</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44730</v>
+      </c>
+      <c r="L28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="1">
+        <v>44765</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="1">
+        <v>44790</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>44823</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" s="1">
+        <v>44885</v>
+      </c>
+      <c r="T28" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="1">
+        <v>44916</v>
+      </c>
+      <c r="V28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W28" s="1">
+        <v>44920</v>
+      </c>
+      <c r="X28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>44948</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29">
+        <v>9363092749</v>
+      </c>
+      <c r="C29">
+        <v>60000</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44691</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44725</v>
+      </c>
+      <c r="L29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="1">
+        <v>44756</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="1">
+        <v>44790</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>44829</v>
+      </c>
+      <c r="R29" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="1">
+        <v>44874</v>
+      </c>
+      <c r="T29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30">
+        <v>9629604119</v>
+      </c>
+      <c r="C30">
+        <v>30000</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44697</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44728</v>
+      </c>
+      <c r="L30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="1">
+        <v>44760</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="1">
+        <v>44793</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>44825</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="1">
+        <v>44853</v>
+      </c>
+      <c r="T30" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="1">
+        <v>44885</v>
+      </c>
+      <c r="V30" t="s">
+        <v>29</v>
+      </c>
+      <c r="W30" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>44945</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>9043245190</v>
+      </c>
+      <c r="C31">
+        <v>10000</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44666</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="1">
-        <v>44785</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="I31" s="1">
+        <v>44692</v>
+      </c>
+      <c r="J31" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44727</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="1">
+        <v>44756</v>
+      </c>
+      <c r="N31" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="1">
+        <v>44788</v>
+      </c>
+      <c r="P31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>44817</v>
+      </c>
+      <c r="R31" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="1">
+        <v>44846</v>
+      </c>
+      <c r="T31" t="s">
+        <v>32</v>
+      </c>
+      <c r="U31" s="1">
+        <v>44887</v>
+      </c>
+      <c r="V31" t="s">
+        <v>32</v>
+      </c>
+      <c r="W31" s="1">
+        <v>44914</v>
+      </c>
+      <c r="X31" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>44949</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>6379424731</v>
+      </c>
+      <c r="C32">
+        <v>20000</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44667</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="1">
-        <v>44817</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="1">
-        <v>44848</v>
-      </c>
-      <c r="U19" t="s">
-        <v>30</v>
-      </c>
-      <c r="V19" s="1">
-        <v>44879</v>
-      </c>
-      <c r="W19" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="1">
+      <c r="I32" s="1">
+        <v>44704</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44722</v>
+      </c>
+      <c r="L32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="1">
+        <v>44752</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="1">
+        <v>44779</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>44816</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" s="1">
+        <v>44854</v>
+      </c>
+      <c r="T32" t="s">
+        <v>29</v>
+      </c>
+      <c r="U32" s="1">
+        <v>44890</v>
+      </c>
+      <c r="V32" t="s">
+        <v>29</v>
+      </c>
+      <c r="W32" s="1">
         <v>44908</v>
       </c>
-      <c r="Y19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>44933</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>44933</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>30</v>
+      <c r="X32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>44940</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>44940</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>8754756652</v>
-      </c>
-      <c r="D20">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>9500972237</v>
+      </c>
+      <c r="C33">
         <v>40000</v>
       </c>
-      <c r="E20">
+      <c r="D33">
         <v>20</v>
       </c>
-      <c r="F20">
+      <c r="E33">
         <v>10</v>
       </c>
-      <c r="G20" s="1">
-        <v>44662</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F33" s="1">
+        <v>44667</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="1">
-        <v>44688</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="1">
-        <v>44713</v>
-      </c>
-      <c r="M20" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="I33" s="1">
+        <v>44699</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="1">
         <v>44740</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="1">
-        <v>44769</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="1">
-        <v>44800</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="1">
-        <v>44809</v>
-      </c>
-      <c r="U20" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="1">
-        <v>44809</v>
-      </c>
-      <c r="W20" t="s">
-        <v>33</v>
-      </c>
-      <c r="X20" s="1">
-        <v>44809</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>44809</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>44809</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="J26" s="1">
-        <v>44582</v>
+      <c r="L33" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="1">
+        <v>44758</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" s="1">
+        <v>44789</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>44820</v>
+      </c>
+      <c r="R33" t="s">
+        <v>29</v>
+      </c>
+      <c r="S33" s="1">
+        <v>44861</v>
+      </c>
+      <c r="T33" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" s="1">
+        <v>44890</v>
+      </c>
+      <c r="V33" t="s">
+        <v>29</v>
+      </c>
+      <c r="W33" s="1">
+        <v>44917</v>
+      </c>
+      <c r="X33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>44944</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/vpcdata.xlsx
+++ b/vpcdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -209,6 +209,48 @@
   </si>
   <si>
     <t>Manoj(Vani) 40k</t>
+  </si>
+  <si>
+    <t>Balaji(Sathish Imdex) 50k</t>
+  </si>
+  <si>
+    <t>Deepan (ABT)30k</t>
+  </si>
+  <si>
+    <t>Anitha Shree 15k</t>
+  </si>
+  <si>
+    <t>Keerthi(Devika Nithya) 25k</t>
+  </si>
+  <si>
+    <t>Rajeshwari(Devika Nithya) 25k</t>
+  </si>
+  <si>
+    <t>Thirunavukarasu(subbu) 50k</t>
+  </si>
+  <si>
+    <t>karthik(Jemesh)10k</t>
+  </si>
+  <si>
+    <t>Jaya(Devika Nithiya) 1L</t>
+  </si>
+  <si>
+    <t>Suresh (AccuraCM)50k</t>
+  </si>
+  <si>
+    <t>Nishana(Thajunisha) 30k</t>
+  </si>
+  <si>
+    <t>Kirithika (SPI) 30k</t>
+  </si>
+  <si>
+    <t>Gowtham(Hari Nexa) 20k</t>
+  </si>
+  <si>
+    <t>Allwin(suresh Babu) 20k</t>
+  </si>
+  <si>
+    <t>Ravi(solar)sudhir 5l</t>
   </si>
 </sst>
 </file>
@@ -1038,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3522,7 +3564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3600,6 +3642,991 @@
       </c>
       <c r="Z33" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34">
+        <v>9994414575</v>
+      </c>
+      <c r="C34">
+        <v>50000</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44667</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45062</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="1">
+        <v>45094</v>
+      </c>
+      <c r="L34" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="1">
+        <v>44763</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="1">
+        <v>44793</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>44834</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="1">
+        <v>44866</v>
+      </c>
+      <c r="T34" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" s="1">
+        <v>44893</v>
+      </c>
+      <c r="V34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W34" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35">
+        <v>9789450750</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44667</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44694</v>
+      </c>
+      <c r="J35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44725</v>
+      </c>
+      <c r="L35" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="1">
+        <v>44756</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" s="1">
+        <v>44785</v>
+      </c>
+      <c r="P35" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>44903</v>
+      </c>
+      <c r="R35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>9500480205</v>
+      </c>
+      <c r="C36">
+        <v>15000</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44669</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44718</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44720</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="1">
+        <v>44746</v>
+      </c>
+      <c r="N36" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="1">
+        <v>44781</v>
+      </c>
+      <c r="P36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>44810</v>
+      </c>
+      <c r="R36" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="1">
+        <v>44845</v>
+      </c>
+      <c r="T36" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="1">
+        <v>44875</v>
+      </c>
+      <c r="V36" t="s">
+        <v>32</v>
+      </c>
+      <c r="W36" s="1">
+        <v>44907</v>
+      </c>
+      <c r="X36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>44954</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37">
+        <v>9629604119</v>
+      </c>
+      <c r="C37">
+        <v>25000</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44671</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44701</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="1">
+        <v>44734</v>
+      </c>
+      <c r="L37" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="1">
+        <v>44763</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="1">
+        <v>44795</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>44827</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="1">
+        <v>44861</v>
+      </c>
+      <c r="T37" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="1">
+        <v>44891</v>
+      </c>
+      <c r="V37" t="s">
+        <v>29</v>
+      </c>
+      <c r="W37" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>44949</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38">
+        <v>9629604119</v>
+      </c>
+      <c r="C38">
+        <v>25000</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44671</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44732</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="1">
+        <v>44748</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="1">
+        <v>44767</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" s="1">
+        <v>44801</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>44827</v>
+      </c>
+      <c r="R38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" s="1">
+        <v>44861</v>
+      </c>
+      <c r="T38" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" s="1">
+        <v>44891</v>
+      </c>
+      <c r="V38" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>44949</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39">
+        <v>7502077436</v>
+      </c>
+      <c r="C39">
+        <v>50000</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44672</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44732</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="1">
+        <v>44762</v>
+      </c>
+      <c r="N39" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="1">
+        <v>44795</v>
+      </c>
+      <c r="P39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>44824</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="1">
+        <v>44857</v>
+      </c>
+      <c r="T39" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="1">
+        <v>44889</v>
+      </c>
+      <c r="V39" t="s">
+        <v>32</v>
+      </c>
+      <c r="W39" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>44950</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40">
+        <v>9865890020</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44673</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44704</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44735</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="1">
+        <v>44765</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="1">
+        <v>44795</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>44826</v>
+      </c>
+      <c r="R40" t="s">
+        <v>29</v>
+      </c>
+      <c r="S40" s="1">
+        <v>44857</v>
+      </c>
+      <c r="T40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" s="1">
+        <v>44887</v>
+      </c>
+      <c r="V40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W40" s="1">
+        <v>44918</v>
+      </c>
+      <c r="X40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>44949</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>9629604119</v>
+      </c>
+      <c r="C41">
+        <v>100000</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44673</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44705</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44738</v>
+      </c>
+      <c r="L41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="1">
+        <v>44770</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" s="1">
+        <v>44801</v>
+      </c>
+      <c r="P41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>44834</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" s="1">
+        <v>44862</v>
+      </c>
+      <c r="T41" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="1">
+        <v>44891</v>
+      </c>
+      <c r="V41" t="s">
+        <v>29</v>
+      </c>
+      <c r="W41" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>44949</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>8248103121</v>
+      </c>
+      <c r="C42">
+        <v>50000</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44674</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44700</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44742</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M42" s="1">
+        <v>44764</v>
+      </c>
+      <c r="N42" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="1">
+        <v>44789</v>
+      </c>
+      <c r="P42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>44819</v>
+      </c>
+      <c r="R42" t="s">
+        <v>32</v>
+      </c>
+      <c r="S42" s="1">
+        <v>44863</v>
+      </c>
+      <c r="T42" t="s">
+        <v>32</v>
+      </c>
+      <c r="U42" s="1">
+        <v>44889</v>
+      </c>
+      <c r="V42" t="s">
+        <v>32</v>
+      </c>
+      <c r="W42" s="1">
+        <v>44915</v>
+      </c>
+      <c r="X42" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>44930</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43">
+        <v>7200090780</v>
+      </c>
+      <c r="C43">
+        <v>30000</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44674</v>
+      </c>
+      <c r="G43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44704</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44734</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" s="1">
+        <v>44765</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="1">
+        <v>44797</v>
+      </c>
+      <c r="P43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>44825</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" s="1">
+        <v>44861</v>
+      </c>
+      <c r="T43" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="1">
+        <v>44888</v>
+      </c>
+      <c r="V43" t="s">
+        <v>29</v>
+      </c>
+      <c r="W43" s="1">
+        <v>44944</v>
+      </c>
+      <c r="X43" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>44954</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>44954</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44">
+        <v>7358842439</v>
+      </c>
+      <c r="C44">
+        <v>30000</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44676</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44708</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44729</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="1">
+        <v>44771</v>
+      </c>
+      <c r="N44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="1">
+        <v>44812</v>
+      </c>
+      <c r="P44" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R44" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="1">
+        <v>44865</v>
+      </c>
+      <c r="T44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>9600390780</v>
+      </c>
+      <c r="C45">
+        <v>20000</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44677</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44707</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="1">
+        <v>44741</v>
+      </c>
+      <c r="L45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="1">
+        <v>44771</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" s="1">
+        <v>44782</v>
+      </c>
+      <c r="P45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>44782</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>9442339728</v>
+      </c>
+      <c r="C46">
+        <v>500000</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44678</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44725</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44749</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" s="1">
+        <v>44813</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" s="1">
+        <v>44813</v>
+      </c>
+      <c r="P46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>44851</v>
+      </c>
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" s="1">
+        <v>44886</v>
+      </c>
+      <c r="T46" t="s">
+        <v>29</v>
+      </c>
+      <c r="U46" s="1">
+        <v>44904</v>
+      </c>
+      <c r="V46" t="s">
+        <v>29</v>
+      </c>
+      <c r="W46" s="1">
+        <v>44904</v>
+      </c>
+      <c r="X46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>44904</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>44904</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/vpcdata.xlsx
+++ b/vpcdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -251,6 +251,84 @@
   </si>
   <si>
     <t>Ravi(solar)sudhir 5l</t>
+  </si>
+  <si>
+    <t>J P(Dawood) 60k</t>
+  </si>
+  <si>
+    <t>Hema(Devika Nithya) 10k</t>
+  </si>
+  <si>
+    <t>Rajesh Smart(Devika Nithya) 20k</t>
+  </si>
+  <si>
+    <t>KamuDurai(Devika Nithya) 60k</t>
+  </si>
+  <si>
+    <t>Thangaraj(Devika Nithya) 25k</t>
+  </si>
+  <si>
+    <t>Sriram( Excel Trichy) 50k</t>
+  </si>
+  <si>
+    <t>Suresh Babu(Allwin) 20k</t>
+  </si>
+  <si>
+    <t>Allan(Scripe) 25k</t>
+  </si>
+  <si>
+    <t>Maheshwari Jdoffice(Devika) 1.25l</t>
+  </si>
+  <si>
+    <t>Vinchy 50k</t>
+  </si>
+  <si>
+    <t>Annesh(Daisy Kishore) 60k</t>
+  </si>
+  <si>
+    <t>Annesh(Kirithika SPI) 25k</t>
+  </si>
+  <si>
+    <t>Nanchy   5l</t>
+  </si>
+  <si>
+    <t>Mary(Devika Nithiya) 25k</t>
+  </si>
+  <si>
+    <t>Councilor(Mariappan) 1.5l</t>
+  </si>
+  <si>
+    <t>Yuvaraj(Hari Nexa) 7.5k</t>
+  </si>
+  <si>
+    <t>Ashraf Deen 30k</t>
+  </si>
+  <si>
+    <t>Subin Inbaraj(G S Mani) 50k</t>
+  </si>
+  <si>
+    <t>Alexander(Vpc Financiers) 20k</t>
+  </si>
+  <si>
+    <t>Janani (Thajunisha) 60k</t>
+  </si>
+  <si>
+    <t>Shanthi(Devika Nithiya) 1.5l</t>
+  </si>
+  <si>
+    <t>Srinivasan(kalpana Hospital) 1l</t>
+  </si>
+  <si>
+    <t>Gavaskar(Archana Rajesh) 2.5l</t>
+  </si>
+  <si>
+    <t>Kiran kumar(Deci) 50k</t>
+  </si>
+  <si>
+    <t>Sugunalatha 50k</t>
+  </si>
+  <si>
+    <t>Andrew Alex(Prince) 50k</t>
   </si>
 </sst>
 </file>
@@ -1080,16 +1158,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB47"/>
+  <dimension ref="A1:AB74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="I60" workbookViewId="0">
+      <selection activeCell="Y74" sqref="Y74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -4628,6 +4708,2145 @@
       <c r="A47" t="s">
         <v>77</v>
       </c>
+      <c r="B47">
+        <v>9894219303</v>
+      </c>
+      <c r="C47">
+        <v>20000</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44678</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44704</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44734</v>
+      </c>
+      <c r="L47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="1">
+        <v>44763</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" s="1">
+        <v>44795</v>
+      </c>
+      <c r="P47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>44824</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="1">
+        <v>44861</v>
+      </c>
+      <c r="T47" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" s="1">
+        <v>44890</v>
+      </c>
+      <c r="V47" t="s">
+        <v>29</v>
+      </c>
+      <c r="W47" s="1">
+        <v>44912</v>
+      </c>
+      <c r="X47" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>44917</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>44917</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48">
+        <v>9994535837</v>
+      </c>
+      <c r="C48">
+        <v>60000</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44678</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44711</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="1">
+        <v>44740</v>
+      </c>
+      <c r="L48" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="1">
+        <v>44768</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="1">
+        <v>44800</v>
+      </c>
+      <c r="P48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>44830</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" s="1">
+        <v>44860</v>
+      </c>
+      <c r="T48" t="s">
+        <v>29</v>
+      </c>
+      <c r="U48" s="1">
+        <v>44893</v>
+      </c>
+      <c r="V48" t="s">
+        <v>29</v>
+      </c>
+      <c r="W48" s="1">
+        <v>44921</v>
+      </c>
+      <c r="X48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>44924</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>44924</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49">
+        <v>9629604119</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44679</v>
+      </c>
+      <c r="G49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44711</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44742</v>
+      </c>
+      <c r="L49" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="1">
+        <v>44771</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" s="1">
+        <v>44802</v>
+      </c>
+      <c r="P49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>44831</v>
+      </c>
+      <c r="R49" t="s">
+        <v>29</v>
+      </c>
+      <c r="S49" s="1">
+        <v>44869</v>
+      </c>
+      <c r="T49" t="s">
+        <v>29</v>
+      </c>
+      <c r="U49" s="1">
+        <v>44897</v>
+      </c>
+      <c r="V49" t="s">
+        <v>29</v>
+      </c>
+      <c r="W49" s="1">
+        <v>44929</v>
+      </c>
+      <c r="X49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>44954</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>9629604119</v>
+      </c>
+      <c r="C50">
+        <v>20000</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44679</v>
+      </c>
+      <c r="G50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44701</v>
+      </c>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="1">
+        <v>44741</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="1">
+        <v>44771</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="1">
+        <v>44795</v>
+      </c>
+      <c r="P50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>44835</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
+      </c>
+      <c r="S50" s="1">
+        <v>44869</v>
+      </c>
+      <c r="T50" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" s="1">
+        <v>44897</v>
+      </c>
+      <c r="V50" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50" s="1">
+        <v>44929</v>
+      </c>
+      <c r="X50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51">
+        <v>9629604119</v>
+      </c>
+      <c r="C51">
+        <v>60000</v>
+      </c>
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44679</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44711</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44741</v>
+      </c>
+      <c r="L51" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="1">
+        <v>44774</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" s="1">
+        <v>44810</v>
+      </c>
+      <c r="P51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>44835</v>
+      </c>
+      <c r="R51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="1">
+        <v>44869</v>
+      </c>
+      <c r="T51" t="s">
+        <v>29</v>
+      </c>
+      <c r="U51" s="1">
+        <v>44897</v>
+      </c>
+      <c r="V51" t="s">
+        <v>29</v>
+      </c>
+      <c r="W51" s="1">
+        <v>44929</v>
+      </c>
+      <c r="X51" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>44936</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>44936</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52">
+        <v>9629604119</v>
+      </c>
+      <c r="C52">
+        <v>25000</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44679</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44711</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="1">
+        <v>44741</v>
+      </c>
+      <c r="L52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="1">
+        <v>44774</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" s="1">
+        <v>44810</v>
+      </c>
+      <c r="P52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>44835</v>
+      </c>
+      <c r="R52" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" s="1">
+        <v>44869</v>
+      </c>
+      <c r="T52" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="1">
+        <v>44897</v>
+      </c>
+      <c r="V52" t="s">
+        <v>29</v>
+      </c>
+      <c r="W52" s="1">
+        <v>44929</v>
+      </c>
+      <c r="X52" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>44954</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>9843282345</v>
+      </c>
+      <c r="C53">
+        <v>50000</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44681</v>
+      </c>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="1">
+        <v>44727</v>
+      </c>
+      <c r="L53" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="1">
+        <v>44765</v>
+      </c>
+      <c r="N53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="1">
+        <v>44807</v>
+      </c>
+      <c r="P53" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>44842</v>
+      </c>
+      <c r="R53" t="s">
+        <v>29</v>
+      </c>
+      <c r="S53" s="1">
+        <v>44876</v>
+      </c>
+      <c r="T53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54">
+        <v>7598955231</v>
+      </c>
+      <c r="C54">
+        <v>20000</v>
+      </c>
+      <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44682</v>
+      </c>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44732</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44762</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="1">
+        <v>44800</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="1">
+        <v>44814</v>
+      </c>
+      <c r="P54" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>44852</v>
+      </c>
+      <c r="R54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" s="1">
+        <v>44880</v>
+      </c>
+      <c r="T54" t="s">
+        <v>29</v>
+      </c>
+      <c r="U54" s="1">
+        <v>44909</v>
+      </c>
+      <c r="V54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W54" s="1">
+        <v>44944</v>
+      </c>
+      <c r="X54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55">
+        <v>9597540407</v>
+      </c>
+      <c r="C55">
+        <v>25000</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44683</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44720</v>
+      </c>
+      <c r="J55" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="1">
+        <v>44748</v>
+      </c>
+      <c r="L55" t="s">
+        <v>32</v>
+      </c>
+      <c r="M55" s="1">
+        <v>44780</v>
+      </c>
+      <c r="N55" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="1">
+        <v>44811</v>
+      </c>
+      <c r="P55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>44812</v>
+      </c>
+      <c r="R55" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="1">
+        <v>44872</v>
+      </c>
+      <c r="T55" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="1">
+        <v>44903</v>
+      </c>
+      <c r="V55" t="s">
+        <v>32</v>
+      </c>
+      <c r="W55" s="1">
+        <v>44932</v>
+      </c>
+      <c r="X55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>44964</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56">
+        <v>9629604119</v>
+      </c>
+      <c r="C56">
+        <v>125000</v>
+      </c>
+      <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44684</v>
+      </c>
+      <c r="G56" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44715</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="1">
+        <v>44746</v>
+      </c>
+      <c r="L56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="1">
+        <v>44776</v>
+      </c>
+      <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="1">
+        <v>44810</v>
+      </c>
+      <c r="P56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R56" t="s">
+        <v>29</v>
+      </c>
+      <c r="S56" s="1">
+        <v>44873</v>
+      </c>
+      <c r="T56" t="s">
+        <v>29</v>
+      </c>
+      <c r="U56" s="1">
+        <v>44897</v>
+      </c>
+      <c r="V56" t="s">
+        <v>29</v>
+      </c>
+      <c r="W56" s="1">
+        <v>44931</v>
+      </c>
+      <c r="X56" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>44940</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>44575</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57">
+        <v>9003928044</v>
+      </c>
+      <c r="C57">
+        <v>50000</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44685</v>
+      </c>
+      <c r="G57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44723</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44746</v>
+      </c>
+      <c r="L57" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="1">
+        <v>44798</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="1">
+        <v>44817</v>
+      </c>
+      <c r="P57" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>44847</v>
+      </c>
+      <c r="R57" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" s="1">
+        <v>44904</v>
+      </c>
+      <c r="T57" t="s">
+        <v>29</v>
+      </c>
+      <c r="U57" s="1">
+        <v>44931</v>
+      </c>
+      <c r="V57" t="s">
+        <v>29</v>
+      </c>
+      <c r="W57" s="1">
+        <v>44963</v>
+      </c>
+      <c r="X57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58">
+        <v>9003757505</v>
+      </c>
+      <c r="C58">
+        <v>60000</v>
+      </c>
+      <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44722</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1">
+        <v>44753</v>
+      </c>
+      <c r="L58" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="1">
+        <v>44779</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="1">
+        <v>44811</v>
+      </c>
+      <c r="P58" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R58" t="s">
+        <v>29</v>
+      </c>
+      <c r="S58" s="1">
+        <v>44875</v>
+      </c>
+      <c r="T58" t="s">
+        <v>29</v>
+      </c>
+      <c r="U58" s="1">
+        <v>44905</v>
+      </c>
+      <c r="V58" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="1">
+        <v>44937</v>
+      </c>
+      <c r="X58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <v>7358842439</v>
+      </c>
+      <c r="C59">
+        <v>25000</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44686</v>
+      </c>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44718</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44750</v>
+      </c>
+      <c r="L59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" s="1">
+        <v>44778</v>
+      </c>
+      <c r="N59" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="1">
+        <v>44812</v>
+      </c>
+      <c r="P59" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60">
+        <v>9677886694</v>
+      </c>
+      <c r="C60">
+        <v>500000</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44720</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44751</v>
+      </c>
+      <c r="L60" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="1">
+        <v>44812</v>
+      </c>
+      <c r="P60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>44873</v>
+      </c>
+      <c r="R60" t="s">
+        <v>29</v>
+      </c>
+      <c r="S60" s="1">
+        <v>44903</v>
+      </c>
+      <c r="T60" t="s">
+        <v>29</v>
+      </c>
+      <c r="U60" s="1">
+        <v>44935</v>
+      </c>
+      <c r="V60" t="s">
+        <v>29</v>
+      </c>
+      <c r="W60" s="1">
+        <v>44965</v>
+      </c>
+      <c r="X60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61">
+        <v>9629604119</v>
+      </c>
+      <c r="C61">
+        <v>25000</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44753</v>
+      </c>
+      <c r="L61" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="1">
+        <v>44783</v>
+      </c>
+      <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" s="1">
+        <v>44815</v>
+      </c>
+      <c r="P61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S61" s="1">
+        <v>44873</v>
+      </c>
+      <c r="T61" t="s">
+        <v>29</v>
+      </c>
+      <c r="U61" s="1">
+        <v>44904</v>
+      </c>
+      <c r="V61" t="s">
+        <v>29</v>
+      </c>
+      <c r="W61" s="1">
+        <v>44939</v>
+      </c>
+      <c r="X61" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>44964</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62">
+        <v>9629604119</v>
+      </c>
+      <c r="C62">
+        <v>60000</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G62" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="1">
+        <v>44750</v>
+      </c>
+      <c r="L62" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="1">
+        <v>44781</v>
+      </c>
+      <c r="N62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="1">
+        <v>44813</v>
+      </c>
+      <c r="P62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R62" t="s">
+        <v>29</v>
+      </c>
+      <c r="S62" s="1">
+        <v>44873</v>
+      </c>
+      <c r="T62" t="s">
+        <v>29</v>
+      </c>
+      <c r="U62" s="1">
+        <v>44904</v>
+      </c>
+      <c r="V62" t="s">
+        <v>29</v>
+      </c>
+      <c r="W62" s="1">
+        <v>44939</v>
+      </c>
+      <c r="X62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>44964</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63">
+        <v>9360568393</v>
+      </c>
+      <c r="C63">
+        <v>150000</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44688</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44721</v>
+      </c>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="1">
+        <v>44750</v>
+      </c>
+      <c r="L63" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N63" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="1">
+        <v>44811</v>
+      </c>
+      <c r="P63" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>44846</v>
+      </c>
+      <c r="R63" t="s">
+        <v>29</v>
+      </c>
+      <c r="S63" s="1">
+        <v>44926</v>
+      </c>
+      <c r="T63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64">
+        <v>7708837570</v>
+      </c>
+      <c r="C64">
+        <v>75000</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44690</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44722</v>
+      </c>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
+      <c r="K64" s="1">
+        <v>44750</v>
+      </c>
+      <c r="L64" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="1">
+        <v>44813</v>
+      </c>
+      <c r="P64" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>44855</v>
+      </c>
+      <c r="R64" t="s">
+        <v>29</v>
+      </c>
+      <c r="S64" s="1">
+        <v>44874</v>
+      </c>
+      <c r="T64" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="1">
+        <v>44904</v>
+      </c>
+      <c r="V64" t="s">
+        <v>29</v>
+      </c>
+      <c r="W64" s="1">
+        <v>44935</v>
+      </c>
+      <c r="X64" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>44935</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>44935</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>9842011135</v>
+      </c>
+      <c r="C65">
+        <v>30000</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44690</v>
+      </c>
+      <c r="G65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44720</v>
+      </c>
+      <c r="J65" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="1">
+        <v>44748</v>
+      </c>
+      <c r="L65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="1">
+        <v>44779</v>
+      </c>
+      <c r="N65" t="s">
+        <v>32</v>
+      </c>
+      <c r="O65" s="1">
+        <v>44811</v>
+      </c>
+      <c r="P65" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>44841</v>
+      </c>
+      <c r="R65" t="s">
+        <v>32</v>
+      </c>
+      <c r="S65" s="1">
+        <v>44871</v>
+      </c>
+      <c r="T65" t="s">
+        <v>32</v>
+      </c>
+      <c r="U65" s="1">
+        <v>44901</v>
+      </c>
+      <c r="V65" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65" s="1">
+        <v>44932</v>
+      </c>
+      <c r="X65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66">
+        <v>9894034496</v>
+      </c>
+      <c r="C66">
+        <v>50000</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44690</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44729</v>
+      </c>
+      <c r="J66" t="s">
+        <v>32</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44789</v>
+      </c>
+      <c r="L66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M66" s="1">
+        <v>44882</v>
+      </c>
+      <c r="N66" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="1">
+        <v>44924</v>
+      </c>
+      <c r="P66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>44936</v>
+      </c>
+      <c r="R66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67">
+        <v>9489871819</v>
+      </c>
+      <c r="C67">
+        <v>20000</v>
+      </c>
+      <c r="D67">
+        <v>20</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44690</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="1">
+        <v>44718</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="1">
+        <v>44747</v>
+      </c>
+      <c r="L67" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="1">
+        <v>44778</v>
+      </c>
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="1">
+        <v>44809</v>
+      </c>
+      <c r="P67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>44837</v>
+      </c>
+      <c r="R67" t="s">
+        <v>29</v>
+      </c>
+      <c r="S67" s="1">
+        <v>44870</v>
+      </c>
+      <c r="T67" t="s">
+        <v>29</v>
+      </c>
+      <c r="U67" s="1">
+        <v>44900</v>
+      </c>
+      <c r="V67" t="s">
+        <v>29</v>
+      </c>
+      <c r="W67" s="1">
+        <v>44931</v>
+      </c>
+      <c r="X67" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>44963</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68">
+        <v>9047151503</v>
+      </c>
+      <c r="C68">
+        <v>60000</v>
+      </c>
+      <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44690</v>
+      </c>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44721</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44751</v>
+      </c>
+      <c r="L68" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" s="1">
+        <v>44818</v>
+      </c>
+      <c r="P68" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>44852</v>
+      </c>
+      <c r="R68" t="s">
+        <v>29</v>
+      </c>
+      <c r="S68" s="1">
+        <v>44889</v>
+      </c>
+      <c r="T68" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="1">
+        <v>44910</v>
+      </c>
+      <c r="V68" t="s">
+        <v>29</v>
+      </c>
+      <c r="W68" s="1">
+        <v>44943</v>
+      </c>
+      <c r="X68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69">
+        <v>9629604119</v>
+      </c>
+      <c r="C69">
+        <v>150000</v>
+      </c>
+      <c r="D69">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44692</v>
+      </c>
+      <c r="G69" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44726</v>
+      </c>
+      <c r="J69" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="1">
+        <v>44755</v>
+      </c>
+      <c r="L69" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="1">
+        <v>44789</v>
+      </c>
+      <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="1">
+        <v>44821</v>
+      </c>
+      <c r="P69" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>44849</v>
+      </c>
+      <c r="R69" t="s">
+        <v>29</v>
+      </c>
+      <c r="S69" s="1">
+        <v>44886</v>
+      </c>
+      <c r="T69" t="s">
+        <v>29</v>
+      </c>
+      <c r="U69" s="1">
+        <v>44909</v>
+      </c>
+      <c r="V69" t="s">
+        <v>29</v>
+      </c>
+      <c r="W69" s="1">
+        <v>44939</v>
+      </c>
+      <c r="X69" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>44968</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70">
+        <v>8508655526</v>
+      </c>
+      <c r="C70">
+        <v>100000</v>
+      </c>
+      <c r="D70">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44692</v>
+      </c>
+      <c r="G70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44727</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" s="1">
+        <v>44757</v>
+      </c>
+      <c r="L70" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="1">
+        <v>44789</v>
+      </c>
+      <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="1">
+        <v>44821</v>
+      </c>
+      <c r="P70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>44852</v>
+      </c>
+      <c r="R70" t="s">
+        <v>29</v>
+      </c>
+      <c r="S70" s="1">
+        <v>44886</v>
+      </c>
+      <c r="T70" t="s">
+        <v>29</v>
+      </c>
+      <c r="U70" s="1">
+        <v>44912</v>
+      </c>
+      <c r="V70" t="s">
+        <v>29</v>
+      </c>
+      <c r="W70" s="1">
+        <v>44944</v>
+      </c>
+      <c r="X70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71">
+        <v>9159189012</v>
+      </c>
+      <c r="C71">
+        <v>250000</v>
+      </c>
+      <c r="D71">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44692</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" s="1">
+        <v>44722</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="1">
+        <v>44753</v>
+      </c>
+      <c r="L71" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="1">
+        <v>44784</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" s="1">
+        <v>44816</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R71" t="s">
+        <v>29</v>
+      </c>
+      <c r="S71" s="1">
+        <v>44875</v>
+      </c>
+      <c r="T71" t="s">
+        <v>29</v>
+      </c>
+      <c r="U71" s="1">
+        <v>44905</v>
+      </c>
+      <c r="V71" t="s">
+        <v>29</v>
+      </c>
+      <c r="W71" s="1">
+        <v>44938</v>
+      </c>
+      <c r="X71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>44970</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72">
+        <v>9500111180</v>
+      </c>
+      <c r="C72">
+        <v>50000</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44721</v>
+      </c>
+      <c r="J72" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="1">
+        <v>44747</v>
+      </c>
+      <c r="L72" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="1">
+        <v>44782</v>
+      </c>
+      <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="1">
+        <v>44814</v>
+      </c>
+      <c r="P72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>44842</v>
+      </c>
+      <c r="R72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S72" s="1">
+        <v>44874</v>
+      </c>
+      <c r="T72" t="s">
+        <v>29</v>
+      </c>
+      <c r="U72" s="1">
+        <v>44903</v>
+      </c>
+      <c r="V72" t="s">
+        <v>29</v>
+      </c>
+      <c r="W72" s="1">
+        <v>44574</v>
+      </c>
+      <c r="X72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>44965</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73">
+        <v>8310500745</v>
+      </c>
+      <c r="C73">
+        <v>50000</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="1">
+        <v>44758</v>
+      </c>
+      <c r="L73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="1">
+        <v>44790</v>
+      </c>
+      <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="1">
+        <v>44819</v>
+      </c>
+      <c r="P73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>44844</v>
+      </c>
+      <c r="R73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S73" s="1">
+        <v>44874</v>
+      </c>
+      <c r="T73" t="s">
+        <v>29</v>
+      </c>
+      <c r="U73" s="1">
+        <v>44911</v>
+      </c>
+      <c r="V73" t="s">
+        <v>29</v>
+      </c>
+      <c r="W73" s="1">
+        <v>44929</v>
+      </c>
+      <c r="X73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>44933</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>44933</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74">
+        <v>9629106211</v>
+      </c>
+      <c r="C74">
+        <v>50000</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44693</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="1">
+        <v>44722</v>
+      </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" s="1">
+        <v>44753</v>
+      </c>
+      <c r="L74" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="1">
+        <v>44789</v>
+      </c>
+      <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="1">
+        <v>44832</v>
+      </c>
+      <c r="P74" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>44849</v>
+      </c>
+      <c r="R74" t="s">
+        <v>29</v>
+      </c>
+      <c r="S74" s="1">
+        <v>44881</v>
+      </c>
+      <c r="T74" t="s">
+        <v>29</v>
+      </c>
+      <c r="U74" s="1">
+        <v>44908</v>
+      </c>
+      <c r="V74" t="s">
+        <v>29</v>
+      </c>
+      <c r="W74" s="1">
+        <v>44944</v>
+      </c>
+      <c r="X74" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
